--- a/Tools/ExcelConfig/ExcelTables/__beans__.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\GameP\Tools\ExcelConfig\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0A058-A6B1-B747-A763-40119F1EC16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB070A6C-CF3B-45B4-AF85-25A9FCF60550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33080" yWindow="2240" windowWidth="30800" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -365,6 +365,12 @@
   <si>
     <t>rotateY</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkDir</t>
+  </si>
+  <si>
+    <t>AtkDirType</t>
   </si>
 </sst>
 </file>
@@ -753,16 +759,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="5" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="9" width="15" customWidth="1"/>
     <col min="10" max="13" width="13.5" customWidth="1"/>
   </cols>
@@ -1125,7 +1131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1">
+    <row r="20" spans="1:14" ht="24.95" customHeight="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1234,46 +1240,47 @@
       </c>
     </row>
     <row r="30" spans="1:14">
+      <c r="B30" s="3"/>
       <c r="J30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="J31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="2:12">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="J33" s="3" t="s">
+    <row r="34" spans="2:12">
+      <c r="J34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="2:12">
+      <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="J36" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>82</v>
@@ -1281,14 +1288,22 @@
     </row>
     <row r="37" spans="2:12">
       <c r="J37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="3"/>
+    <row r="38" spans="2:12">
+      <c r="J38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tools/ExcelConfig/ExcelTables/__beans__.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\GameP\Tools\ExcelConfig\ExcelTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB070A6C-CF3B-45B4-AF85-25A9FCF60550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804E6EA-BD45-6E4F-863A-3B5C3A2A5AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -371,6 +371,26 @@
   </si>
   <si>
     <t>AtkDirType</t>
+  </si>
+  <si>
+    <t>SkillParryCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parryBuffAliasToBeCaught</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLaunchCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被抓Buff别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能Act</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -759,16 +779,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="5" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="5" width="29.83203125" customWidth="1"/>
     <col min="6" max="9" width="15" customWidth="1"/>
     <col min="10" max="13" width="13.5" customWidth="1"/>
   </cols>
@@ -1131,7 +1151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="24.95" customHeight="1">
+    <row r="20" spans="1:14" ht="25" customHeight="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:14">
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
@@ -1267,7 +1287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:14">
       <c r="J34" s="3" t="s">
         <v>86</v>
       </c>
@@ -1275,7 +1295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:14">
       <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
@@ -1286,7 +1306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:14">
       <c r="J37" s="3" t="s">
         <v>91</v>
       </c>
@@ -1294,7 +1314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:14">
       <c r="J38" s="3" t="s">
         <v>92</v>
       </c>
@@ -1302,8 +1322,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="3"/>
+    <row r="40" spans="2:14">
+      <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="J41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
